--- a/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32346C25-1009-423A-AF80-1C546A0FAD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBEDDC-FC48-4A45-9861-5C1D5DEFB255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -313,6 +313,63 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file_select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>添付ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_file</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postbuttom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2357,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5670,19 +5727,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -5690,11 +5757,15 @@
       <c r="T79" s="19"/>
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
-      <c r="AA79" s="16"/>
+      <c r="AA79" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="16"/>
@@ -5712,19 +5783,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -5732,11 +5813,15 @@
       <c r="T80" s="19"/>
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
-      <c r="AA80" s="16"/>
+      <c r="AA80" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="16"/>
@@ -5754,16 +5839,24 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16"/>
